--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1953.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1953.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.026*"exchange" + 0.017*"import" + 0.015*"export" + 0.013*"rate" + 0.013*"payment" + 0.012*"country" + 0.010*"currency" + 0.010*"bank" + 0.009*"fund" + 0.009*"license"</t>
-  </si>
-  <si>
-    <t>0.012*"exchange" + 0.007*"import" + 0.007*"export" + 0.006*"country" + 0.006*"rate" + 0.005*"currency" + 0.004*"payment" + 0.004*"license" + 0.004*"fund" + 0.004*"account"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"rate" + 0.001*"payment" + 0.001*"currency" + 0.001*"country" + 0.001*"rom" + 0.001*"bank" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"exchange" + 0.002*"country" + 0.002*"payment" + 0.001*"export" + 0.001*"rate" + 0.001*"per" + 0.001*"fund" + 0.001*"bank" + 0.001*"may"</t>
-  </si>
-  <si>
-    <t>0.017*"exchange" + 0.010*"rate" + 0.009*"import" + 0.008*"export" + 0.008*"currency" + 0.007*"country" + 0.007*"bank" + 0.006*"payment" + 0.006*"license" + 0.005*"account"</t>
+    <t>0.040*"fund" + 0.035*"monetary" + 0.029*"international" + 0.028*"export" + 0.028*"import" + 0.019*"license" + 0.015*"good" + 0.013*"essential" + 0.012*"subject" + 0.012*"per"</t>
+  </si>
+  <si>
+    <t>0.049*"exchange" + 0.023*"export" + 0.020*"control" + 0.017*"restriction" + 0.015*"pt" + 0.014*"redistribution" + 0.013*"foreign" + 0.013*"per" + 0.012*"import" + 0.010*"wh"</t>
+  </si>
+  <si>
+    <t>0.021*"capital" + 0.019*"sterling" + 0.018*"may" + 0.013*"area" + 0.011*"however" + 0.010*"transfer" + 0.010*"approval" + 0.010*"make" + 0.009*"bank" + 0.009*"ing"</t>
+  </si>
+  <si>
+    <t>0.060*"country" + 0.044*"payment" + 0.031*"currency" + 0.024*"import" + 0.019*"agreement" + 0.016*"swiss" + 0.015*"rom" + 0.015*"dollar" + 0.014*"epu" + 0.014*"control"</t>
+  </si>
+  <si>
+    <t>0.060*"rate" + 0.040*"exchange" + 0.030*"free" + 0.026*"market" + 0.022*"import" + 0.022*"export" + 0.019*"account" + 0.017*"official" + 0.017*"bank" + 0.016*"invisibles"</t>
   </si>
 </sst>
 </file>
